--- a/data/pca/factorExposure/factorExposure_2010-02-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-08.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.006593959514142454</v>
+        <v>0.0170668416586032</v>
       </c>
       <c r="C2">
-        <v>-0.01665610435836101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.0009151290862872226</v>
+      </c>
+      <c r="D2">
+        <v>-0.007159323519351895</v>
+      </c>
+      <c r="E2">
+        <v>-0.0001600185467829539</v>
+      </c>
+      <c r="F2">
+        <v>0.009040304422043626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03409505186871667</v>
+        <v>0.0938895076664002</v>
       </c>
       <c r="C4">
-        <v>-0.1218247911035843</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.01566200925854381</v>
+      </c>
+      <c r="D4">
+        <v>-0.08309882996129907</v>
+      </c>
+      <c r="E4">
+        <v>-0.02801426304281187</v>
+      </c>
+      <c r="F4">
+        <v>-0.02997921683439289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.04415976149152722</v>
+        <v>0.1563564383218541</v>
       </c>
       <c r="C6">
-        <v>-0.1064033588867753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.02500484494476529</v>
+      </c>
+      <c r="D6">
+        <v>0.0227999472925738</v>
+      </c>
+      <c r="E6">
+        <v>-0.009780889965193848</v>
+      </c>
+      <c r="F6">
+        <v>-0.04666349550670488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.009613883598792995</v>
+        <v>0.0601847612225596</v>
       </c>
       <c r="C7">
-        <v>-0.07421117812588901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.000837419543627962</v>
+      </c>
+      <c r="D7">
+        <v>-0.05122043403129804</v>
+      </c>
+      <c r="E7">
+        <v>-0.01129498946680417</v>
+      </c>
+      <c r="F7">
+        <v>-0.04193816719447066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.00762989593482062</v>
+        <v>0.05859054177927791</v>
       </c>
       <c r="C8">
-        <v>-0.05372937520957815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01353415324262997</v>
+      </c>
+      <c r="D8">
+        <v>-0.03155914401257626</v>
+      </c>
+      <c r="E8">
+        <v>-0.01619197471016543</v>
+      </c>
+      <c r="F8">
+        <v>0.02807701356965205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02950293323820019</v>
+        <v>0.07186595489097218</v>
       </c>
       <c r="C9">
-        <v>-0.09551711858554304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01152484602886425</v>
+      </c>
+      <c r="D9">
+        <v>-0.08430346526207887</v>
+      </c>
+      <c r="E9">
+        <v>-0.02203596447851243</v>
+      </c>
+      <c r="F9">
+        <v>-0.04571455858705255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.005345666285839853</v>
+        <v>0.09491960404449516</v>
       </c>
       <c r="C10">
-        <v>-0.04690244805303093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.01868280310267644</v>
+      </c>
+      <c r="D10">
+        <v>0.1702690022457987</v>
+      </c>
+      <c r="E10">
+        <v>0.03815717980263137</v>
+      </c>
+      <c r="F10">
+        <v>0.05680195530613996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03224742197606561</v>
+        <v>0.08774816224813592</v>
       </c>
       <c r="C11">
-        <v>-0.1045792892271443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.0110908275092579</v>
+      </c>
+      <c r="D11">
+        <v>-0.1170238403396385</v>
+      </c>
+      <c r="E11">
+        <v>-0.04681268865244791</v>
+      </c>
+      <c r="F11">
+        <v>-0.01909509141589264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02944257509651537</v>
+        <v>0.09245299058420754</v>
       </c>
       <c r="C12">
-        <v>-0.1120098827979927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008525578375127836</v>
+      </c>
+      <c r="D12">
+        <v>-0.128874057885715</v>
+      </c>
+      <c r="E12">
+        <v>-0.04690090762648023</v>
+      </c>
+      <c r="F12">
+        <v>-0.02196583090349569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.00883614716967451</v>
+        <v>0.0433085281220698</v>
       </c>
       <c r="C13">
-        <v>-0.03996617262680738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.003955380493590037</v>
+      </c>
+      <c r="D13">
+        <v>-0.04774800403072083</v>
+      </c>
+      <c r="E13">
+        <v>0.0122542702840037</v>
+      </c>
+      <c r="F13">
+        <v>-0.003057404772456504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01486944388469121</v>
+        <v>0.02258947005046874</v>
       </c>
       <c r="C14">
-        <v>-0.02492734631536211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01399247344807525</v>
+      </c>
+      <c r="D14">
+        <v>-0.03302231795224944</v>
+      </c>
+      <c r="E14">
+        <v>-0.01624238261921625</v>
+      </c>
+      <c r="F14">
+        <v>-0.01413494151077309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01263435923675079</v>
+        <v>0.03119546665803296</v>
       </c>
       <c r="C15">
-        <v>-0.0251119394976782</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.005151594209226389</v>
+      </c>
+      <c r="D15">
+        <v>-0.04493051042487675</v>
+      </c>
+      <c r="E15">
+        <v>-0.00700045619734901</v>
+      </c>
+      <c r="F15">
+        <v>-0.02173634276011541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.02030269708360292</v>
+        <v>0.07332976178050581</v>
       </c>
       <c r="C16">
-        <v>-0.1122827801249993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.002071177634277305</v>
+      </c>
+      <c r="D16">
+        <v>-0.1261167560842314</v>
+      </c>
+      <c r="E16">
+        <v>-0.06229209911008617</v>
+      </c>
+      <c r="F16">
+        <v>-0.02211123919838322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02638872013279856</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.003550630267725924</v>
+      </c>
+      <c r="D18">
+        <v>-0.02123426628651895</v>
+      </c>
+      <c r="E18">
+        <v>0.004952682733003573</v>
+      </c>
+      <c r="F18">
+        <v>0.01022617653096613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01527133155383762</v>
+        <v>0.06000573885629911</v>
       </c>
       <c r="C20">
-        <v>-0.06390164694993472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0004720815328463338</v>
+      </c>
+      <c r="D20">
+        <v>-0.07691824302929075</v>
+      </c>
+      <c r="E20">
+        <v>-0.05545677421946496</v>
+      </c>
+      <c r="F20">
+        <v>-0.02068424520087575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.0113320646743804</v>
+        <v>0.03925211032731424</v>
       </c>
       <c r="C21">
-        <v>-0.02212532536366998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.006432220197022274</v>
+      </c>
+      <c r="D21">
+        <v>-0.03632740397935907</v>
+      </c>
+      <c r="E21">
+        <v>0.006880175109684526</v>
+      </c>
+      <c r="F21">
+        <v>0.02683076323050849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.002626167098609023</v>
+        <v>0.04506692631818281</v>
       </c>
       <c r="C22">
-        <v>-0.03833614374070684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0006185345941859973</v>
+      </c>
+      <c r="D22">
+        <v>-0.003302319602519724</v>
+      </c>
+      <c r="E22">
+        <v>-0.02901020454821444</v>
+      </c>
+      <c r="F22">
+        <v>0.03050827073127328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.002642127613525711</v>
+        <v>0.04507401000807763</v>
       </c>
       <c r="C23">
-        <v>-0.03836625555931161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0006339636144397917</v>
+      </c>
+      <c r="D23">
+        <v>-0.003437795913080906</v>
+      </c>
+      <c r="E23">
+        <v>-0.02932530255095868</v>
+      </c>
+      <c r="F23">
+        <v>0.03003435275481519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02222860401634964</v>
+        <v>0.07960379568921169</v>
       </c>
       <c r="C24">
-        <v>-0.1091622842487993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.002721157612811039</v>
+      </c>
+      <c r="D24">
+        <v>-0.1203502608978421</v>
+      </c>
+      <c r="E24">
+        <v>-0.05039431907716834</v>
+      </c>
+      <c r="F24">
+        <v>-0.02239324688109155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02701579055610327</v>
+        <v>0.08512054806396915</v>
       </c>
       <c r="C25">
-        <v>-0.1159942821578728</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.00497375480771821</v>
+      </c>
+      <c r="D25">
+        <v>-0.109100750194618</v>
+      </c>
+      <c r="E25">
+        <v>-0.03294514246301408</v>
+      </c>
+      <c r="F25">
+        <v>-0.02408373653839531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02371070480633669</v>
+        <v>0.0559800829480515</v>
       </c>
       <c r="C26">
-        <v>-0.04735397646940153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01439896662962082</v>
+      </c>
+      <c r="D26">
+        <v>-0.04177332972970466</v>
+      </c>
+      <c r="E26">
+        <v>-0.026973697026831</v>
+      </c>
+      <c r="F26">
+        <v>0.01227415005902485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.005289911702228743</v>
+        <v>0.1421179163171671</v>
       </c>
       <c r="C28">
-        <v>-0.03448276254394891</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.0180628606478756</v>
+      </c>
+      <c r="D28">
+        <v>0.2644888856178903</v>
+      </c>
+      <c r="E28">
+        <v>0.07101628164937311</v>
+      </c>
+      <c r="F28">
+        <v>-0.007743896612802365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0157242994785697</v>
+        <v>0.02660108244670315</v>
       </c>
       <c r="C29">
-        <v>-0.02760029699920127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.00816359424764318</v>
+      </c>
+      <c r="D29">
+        <v>-0.0329394353590653</v>
+      </c>
+      <c r="E29">
+        <v>-0.01074175612269284</v>
+      </c>
+      <c r="F29">
+        <v>0.01089248568175775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0226097792576806</v>
+        <v>0.06172915512775988</v>
       </c>
       <c r="C30">
-        <v>-0.1240015873233629</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.004334286578262518</v>
+      </c>
+      <c r="D30">
+        <v>-0.0863594041137688</v>
+      </c>
+      <c r="E30">
+        <v>-0.02035216852542704</v>
+      </c>
+      <c r="F30">
+        <v>-0.08084225068004211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02534701939852316</v>
+        <v>0.04930926921837882</v>
       </c>
       <c r="C31">
-        <v>-0.03322723747144814</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01510718422275474</v>
+      </c>
+      <c r="D31">
+        <v>-0.02532670195749881</v>
+      </c>
+      <c r="E31">
+        <v>-0.02717559550783088</v>
+      </c>
+      <c r="F31">
+        <v>0.003451917360527321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.01160500760536054</v>
+        <v>0.04918205095818147</v>
       </c>
       <c r="C32">
-        <v>-0.06151515507575304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001183360984423836</v>
+      </c>
+      <c r="D32">
+        <v>-0.03619527419754592</v>
+      </c>
+      <c r="E32">
+        <v>-0.03025948585165788</v>
+      </c>
+      <c r="F32">
+        <v>0.0002209376955230367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02789872957441044</v>
+        <v>0.08949598132066822</v>
       </c>
       <c r="C33">
-        <v>-0.1122284182848607</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008238666840184762</v>
+      </c>
+      <c r="D33">
+        <v>-0.09812820063855594</v>
+      </c>
+      <c r="E33">
+        <v>-0.04524721708536381</v>
+      </c>
+      <c r="F33">
+        <v>-0.0329048818620408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.03072785681340959</v>
+        <v>0.06818705616252531</v>
       </c>
       <c r="C34">
-        <v>-0.09488435827994099</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01150717609909679</v>
+      </c>
+      <c r="D34">
+        <v>-0.1056652427249965</v>
+      </c>
+      <c r="E34">
+        <v>-0.03469511675860992</v>
+      </c>
+      <c r="F34">
+        <v>-0.03138166575387168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.003343152429387138</v>
+        <v>0.0244280081734649</v>
       </c>
       <c r="C35">
-        <v>-0.01435912627911836</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002367007505628253</v>
+      </c>
+      <c r="D35">
+        <v>-0.01247466011989759</v>
+      </c>
+      <c r="E35">
+        <v>-0.0114748026941623</v>
+      </c>
+      <c r="F35">
+        <v>-0.0009624425652382662</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01159340865740641</v>
+        <v>0.02489892614965148</v>
       </c>
       <c r="C36">
-        <v>-0.02848297107037812</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007331229097215689</v>
+      </c>
+      <c r="D36">
+        <v>-0.03981534252919178</v>
+      </c>
+      <c r="E36">
+        <v>-0.01583112038220119</v>
+      </c>
+      <c r="F36">
+        <v>-0.01397380610088011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0008757307365928499</v>
+        <v>0.001479236738289469</v>
       </c>
       <c r="C38">
-        <v>-0.005292157991917996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.0002187749506847578</v>
+      </c>
+      <c r="D38">
+        <v>-0.0007662154749777548</v>
+      </c>
+      <c r="E38">
+        <v>-0.001162479669419088</v>
+      </c>
+      <c r="F38">
+        <v>0.0006294590388101117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04689166994318671</v>
+        <v>0.1072542864155526</v>
       </c>
       <c r="C39">
-        <v>-0.1685466671555038</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01656891644225215</v>
+      </c>
+      <c r="D39">
+        <v>-0.1526694030366252</v>
+      </c>
+      <c r="E39">
+        <v>-0.05861940728983157</v>
+      </c>
+      <c r="F39">
+        <v>-0.02742913994104691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.009568819870473984</v>
+        <v>0.03832478292560714</v>
       </c>
       <c r="C40">
-        <v>-0.009860089509960276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.007157807969449948</v>
+      </c>
+      <c r="D40">
+        <v>-0.03230858753101172</v>
+      </c>
+      <c r="E40">
+        <v>-0.001965865379092011</v>
+      </c>
+      <c r="F40">
+        <v>0.0167598629060645</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01453534876443727</v>
+        <v>0.02686499288264155</v>
       </c>
       <c r="C41">
-        <v>-0.02120180666726555</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.00652672237346547</v>
+      </c>
+      <c r="D41">
+        <v>-0.01083610633822357</v>
+      </c>
+      <c r="E41">
+        <v>-0.01209719739175346</v>
+      </c>
+      <c r="F41">
+        <v>0.006340764184318117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01341094912339633</v>
+        <v>0.04044540860905541</v>
       </c>
       <c r="C43">
-        <v>-0.02527471544997844</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.006630374259730319</v>
+      </c>
+      <c r="D43">
+        <v>-0.02036080183837329</v>
+      </c>
+      <c r="E43">
+        <v>-0.02381446592248885</v>
+      </c>
+      <c r="F43">
+        <v>0.01184290176786542</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.04023553466713049</v>
+        <v>0.07664611731312607</v>
       </c>
       <c r="C44">
-        <v>-0.129971167414543</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.02088122951350463</v>
+      </c>
+      <c r="D44">
+        <v>-0.09822198419757887</v>
+      </c>
+      <c r="E44">
+        <v>-0.06724004428581112</v>
+      </c>
+      <c r="F44">
+        <v>-0.1514840670948967</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.004656769891696492</v>
+        <v>0.02383711602701652</v>
       </c>
       <c r="C46">
-        <v>-0.01222142180574526</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.003827868186671338</v>
+      </c>
+      <c r="D46">
+        <v>-0.0124634870546458</v>
+      </c>
+      <c r="E46">
+        <v>-0.02225200199992282</v>
+      </c>
+      <c r="F46">
+        <v>0.00363488760339692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01596953465256173</v>
+        <v>0.05076553808417702</v>
       </c>
       <c r="C47">
-        <v>-0.04073819615653964</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.003368762323102773</v>
+      </c>
+      <c r="D47">
+        <v>-0.01325915195139203</v>
+      </c>
+      <c r="E47">
+        <v>-0.02303884768776373</v>
+      </c>
+      <c r="F47">
+        <v>0.03363869238648706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01438939663973146</v>
+        <v>0.04811141361011662</v>
       </c>
       <c r="C48">
-        <v>-0.04628598027443275</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.002549114507298826</v>
+      </c>
+      <c r="D48">
+        <v>-0.05102510679087666</v>
+      </c>
+      <c r="E48">
+        <v>0.00560198113907856</v>
+      </c>
+      <c r="F48">
+        <v>-0.007677393821675366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.04343702215543373</v>
+        <v>0.2019972370980255</v>
       </c>
       <c r="C49">
-        <v>-0.2066697427584434</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01816807830837919</v>
+      </c>
+      <c r="D49">
+        <v>0.01154124008986282</v>
+      </c>
+      <c r="E49">
+        <v>-0.03161630997279198</v>
+      </c>
+      <c r="F49">
+        <v>-0.03493456277638746</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.02106024049809413</v>
+        <v>0.04926607775919097</v>
       </c>
       <c r="C50">
-        <v>-0.04070826345634326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.0111457505671726</v>
+      </c>
+      <c r="D50">
+        <v>-0.02492494882077636</v>
+      </c>
+      <c r="E50">
+        <v>-0.02939795308755699</v>
+      </c>
+      <c r="F50">
+        <v>-0.007430241542371989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.001191781982090625</v>
+        <v>0.002290541992153887</v>
       </c>
       <c r="C51">
-        <v>-0.007335766523689863</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.0005842136286308034</v>
+      </c>
+      <c r="D51">
+        <v>0.002411067531691376</v>
+      </c>
+      <c r="E51">
+        <v>0.000189913916448565</v>
+      </c>
+      <c r="F51">
+        <v>-0.003479662567723141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03557503761389789</v>
+        <v>0.1452292163395855</v>
       </c>
       <c r="C52">
-        <v>-0.1396151362047753</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.01434182872963265</v>
+      </c>
+      <c r="D52">
+        <v>-0.0481336282881361</v>
+      </c>
+      <c r="E52">
+        <v>-0.02162201064282099</v>
+      </c>
+      <c r="F52">
+        <v>-0.04414009269612476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03560833568161848</v>
+        <v>0.173663766771807</v>
       </c>
       <c r="C53">
-        <v>-0.1557524135026816</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01761953096996141</v>
+      </c>
+      <c r="D53">
+        <v>-0.006461205013337359</v>
+      </c>
+      <c r="E53">
+        <v>-0.03148819928228659</v>
+      </c>
+      <c r="F53">
+        <v>-0.07515730240669791</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01471053079904257</v>
+        <v>0.02204632962341509</v>
       </c>
       <c r="C54">
-        <v>-0.05011220275474309</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01236385696383391</v>
+      </c>
+      <c r="D54">
+        <v>-0.03298191842306138</v>
+      </c>
+      <c r="E54">
+        <v>-0.01558891841952326</v>
+      </c>
+      <c r="F54">
+        <v>0.002526957871930826</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02684787977514548</v>
+        <v>0.1141480452989819</v>
       </c>
       <c r="C55">
-        <v>-0.08729199165306392</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01581908374598447</v>
+      </c>
+      <c r="D55">
+        <v>-0.01036062185176354</v>
+      </c>
+      <c r="E55">
+        <v>-0.02837933667795388</v>
+      </c>
+      <c r="F55">
+        <v>-0.04869763037144091</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03985759523130148</v>
+        <v>0.1776056517247031</v>
       </c>
       <c r="C56">
-        <v>-0.1555527843997541</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.01496955628766796</v>
+      </c>
+      <c r="D56">
+        <v>-0.004188006892137751</v>
+      </c>
+      <c r="E56">
+        <v>-0.0385964181667712</v>
+      </c>
+      <c r="F56">
+        <v>-0.05572933700153558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01481620846579016</v>
+        <v>0.04679831548956338</v>
       </c>
       <c r="C58">
-        <v>-0.04436279219089576</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.0010871797604679</v>
+      </c>
+      <c r="D58">
+        <v>-0.06715959147052464</v>
+      </c>
+      <c r="E58">
+        <v>-0.02685798620083639</v>
+      </c>
+      <c r="F58">
+        <v>0.03961737577476419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.01289041819336679</v>
+        <v>0.1711366005813837</v>
       </c>
       <c r="C59">
-        <v>-0.09680957631290443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.01850956614772679</v>
+      </c>
+      <c r="D59">
+        <v>0.221389586426027</v>
+      </c>
+      <c r="E59">
+        <v>0.0477311172425617</v>
+      </c>
+      <c r="F59">
+        <v>0.03109551432979287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.04231275554928145</v>
+        <v>0.2342929397311121</v>
       </c>
       <c r="C60">
-        <v>-0.2743044336752034</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.003560939299608752</v>
+      </c>
+      <c r="D60">
+        <v>-0.04065483097733891</v>
+      </c>
+      <c r="E60">
+        <v>-0.01213483805442616</v>
+      </c>
+      <c r="F60">
+        <v>0.002857686687809172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03320934451191725</v>
+        <v>0.08295690539632664</v>
       </c>
       <c r="C61">
-        <v>-0.1281100178631714</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01238435363276091</v>
+      </c>
+      <c r="D61">
+        <v>-0.1161727035318642</v>
+      </c>
+      <c r="E61">
+        <v>-0.03922421926244957</v>
+      </c>
+      <c r="F61">
+        <v>-0.01163749049549434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.04371827928764444</v>
+        <v>0.1698274291292086</v>
       </c>
       <c r="C62">
-        <v>-0.1656309537906514</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.01861796859167326</v>
+      </c>
+      <c r="D62">
+        <v>-0.009390346123146508</v>
+      </c>
+      <c r="E62">
+        <v>-0.03566816758606892</v>
+      </c>
+      <c r="F62">
+        <v>-0.03828511881083896</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01392216008218001</v>
+        <v>0.04343245873587897</v>
       </c>
       <c r="C63">
-        <v>-0.0559544098999318</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002358672652391377</v>
+      </c>
+      <c r="D63">
+        <v>-0.05724585817158295</v>
+      </c>
+      <c r="E63">
+        <v>-0.02043748387253459</v>
+      </c>
+      <c r="F63">
+        <v>-0.003727300866910056</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.02639154629202672</v>
+        <v>0.1106773555778727</v>
       </c>
       <c r="C64">
-        <v>-0.09916132512327303</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01141394741528624</v>
+      </c>
+      <c r="D64">
+        <v>-0.04156569377116619</v>
+      </c>
+      <c r="E64">
+        <v>-0.02080708915757081</v>
+      </c>
+      <c r="F64">
+        <v>-0.02568051473729951</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.04704075892711849</v>
+        <v>0.1471291194105504</v>
       </c>
       <c r="C65">
-        <v>-0.106366258822266</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03170266187814613</v>
+      </c>
+      <c r="D65">
+        <v>0.04154803556126228</v>
+      </c>
+      <c r="E65">
+        <v>-0.0009521044226982946</v>
+      </c>
+      <c r="F65">
+        <v>-0.03828137623044187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04736381959291977</v>
+        <v>0.1278346549576969</v>
       </c>
       <c r="C66">
-        <v>-0.2001359474112952</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01444800106789833</v>
+      </c>
+      <c r="D66">
+        <v>-0.1417592397205329</v>
+      </c>
+      <c r="E66">
+        <v>-0.06694905265793759</v>
+      </c>
+      <c r="F66">
+        <v>-0.02985313042934409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01615957976900578</v>
+        <v>0.06330968484213914</v>
       </c>
       <c r="C67">
-        <v>-0.06948427614337296</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.002848552720399406</v>
+      </c>
+      <c r="D67">
+        <v>-0.05584366952140771</v>
+      </c>
+      <c r="E67">
+        <v>-0.0179080870717432</v>
+      </c>
+      <c r="F67">
+        <v>0.03215036771860911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01618632241419216</v>
+        <v>0.1166417405259308</v>
       </c>
       <c r="C68">
-        <v>-0.03155749750691465</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.0280271602556126</v>
+      </c>
+      <c r="D68">
+        <v>0.2594945939579159</v>
+      </c>
+      <c r="E68">
+        <v>0.08748654847459673</v>
+      </c>
+      <c r="F68">
+        <v>-0.005689397652878892</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.009935786217546663</v>
+        <v>0.03916363778763234</v>
       </c>
       <c r="C69">
-        <v>-0.03191304261476012</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.0009932461975299379</v>
+      </c>
+      <c r="D69">
+        <v>-0.00818697307589606</v>
+      </c>
+      <c r="E69">
+        <v>-0.02358743012780038</v>
+      </c>
+      <c r="F69">
+        <v>0.0008805157022491642</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0001141040116903792</v>
+        <v>0.06237844586384863</v>
       </c>
       <c r="C70">
-        <v>-0.03513307710674483</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02880201226722727</v>
+      </c>
+      <c r="D70">
+        <v>-0.02947826611580243</v>
+      </c>
+      <c r="E70">
+        <v>0.04246730401169695</v>
+      </c>
+      <c r="F70">
+        <v>0.1890451923408006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.02014796628821567</v>
+        <v>0.1359073416190085</v>
       </c>
       <c r="C71">
-        <v>-0.03799100224091349</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.03275382163190013</v>
+      </c>
+      <c r="D71">
+        <v>0.2734354433041681</v>
+      </c>
+      <c r="E71">
+        <v>0.09719926746867143</v>
+      </c>
+      <c r="F71">
+        <v>-0.01151122136249872</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.04088975109478424</v>
+        <v>0.1415597318107837</v>
       </c>
       <c r="C72">
-        <v>-0.11786785166098</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.02527436982248435</v>
+      </c>
+      <c r="D72">
+        <v>-0.0008016785433266658</v>
+      </c>
+      <c r="E72">
+        <v>-0.03984273966977177</v>
+      </c>
+      <c r="F72">
+        <v>-0.03479519005777663</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.04344019484344439</v>
+        <v>0.2006140589744906</v>
       </c>
       <c r="C73">
-        <v>-0.2026519583300794</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.012180710725808</v>
+      </c>
+      <c r="D73">
+        <v>-0.01576683041066845</v>
+      </c>
+      <c r="E73">
+        <v>-0.06449755676842708</v>
+      </c>
+      <c r="F73">
+        <v>-0.03802696333656232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.02610670057590161</v>
+        <v>0.09480952729234252</v>
       </c>
       <c r="C74">
-        <v>-0.1134616327646282</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01264530720355452</v>
+      </c>
+      <c r="D74">
+        <v>-0.0185798640357502</v>
+      </c>
+      <c r="E74">
+        <v>-0.04574025121485639</v>
+      </c>
+      <c r="F74">
+        <v>-0.05712791955372559</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04853190220771727</v>
+        <v>0.128725380106558</v>
       </c>
       <c r="C75">
-        <v>-0.1328776626342578</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02701685251883813</v>
+      </c>
+      <c r="D75">
+        <v>-0.03169032645822273</v>
+      </c>
+      <c r="E75">
+        <v>-0.05979704679183383</v>
+      </c>
+      <c r="F75">
+        <v>-0.0200964863619579</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.001023996623630441</v>
+        <v>0.002137448125451735</v>
       </c>
       <c r="C76">
-        <v>-0.007997112085312343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.0005605319864736631</v>
+      </c>
+      <c r="D76">
+        <v>0.001333608980415925</v>
+      </c>
+      <c r="E76">
+        <v>-0.0004086736940391171</v>
+      </c>
+      <c r="F76">
+        <v>-0.003380895922839127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02837039988073295</v>
+        <v>0.07996192311116576</v>
       </c>
       <c r="C77">
-        <v>-0.1020561554206901</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.008399151738454949</v>
+      </c>
+      <c r="D77">
+        <v>-0.1185657997841763</v>
+      </c>
+      <c r="E77">
+        <v>-0.04238863144611317</v>
+      </c>
+      <c r="F77">
+        <v>-0.02658686200645037</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.06498406878249878</v>
+        <v>0.1032460773529727</v>
       </c>
       <c r="C78">
-        <v>-0.1105807881966774</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03965974933017136</v>
+      </c>
+      <c r="D78">
+        <v>-0.1146441677296691</v>
+      </c>
+      <c r="E78">
+        <v>-0.07820374208779492</v>
+      </c>
+      <c r="F78">
+        <v>-0.04931424869375484</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.04313072636615512</v>
+        <v>0.1643527260517579</v>
       </c>
       <c r="C79">
-        <v>-0.1422285819732864</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.0211356503574612</v>
+      </c>
+      <c r="D79">
+        <v>-0.01833145345498</v>
+      </c>
+      <c r="E79">
+        <v>-0.0486910541089417</v>
+      </c>
+      <c r="F79">
+        <v>-0.01479241615478244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.006630095523440492</v>
+        <v>0.08116283916183745</v>
       </c>
       <c r="C80">
-        <v>-0.09474743388830056</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.0009768787804086063</v>
+      </c>
+      <c r="D80">
+        <v>-0.05691725751065415</v>
+      </c>
+      <c r="E80">
+        <v>-0.03650367440954023</v>
+      </c>
+      <c r="F80">
+        <v>0.02678412703663104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04780500233916759</v>
+        <v>0.1229858803841582</v>
       </c>
       <c r="C81">
-        <v>-0.15330352437838</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.0310126098130454</v>
+      </c>
+      <c r="D81">
+        <v>-0.0165208282794537</v>
+      </c>
+      <c r="E81">
+        <v>-0.05900665042218552</v>
+      </c>
+      <c r="F81">
+        <v>-0.01878048994331104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.0421294684916515</v>
+        <v>0.1646973059097592</v>
       </c>
       <c r="C82">
-        <v>-0.1698673071912483</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.02333515108745682</v>
+      </c>
+      <c r="D82">
+        <v>-0.006790212136958317</v>
+      </c>
+      <c r="E82">
+        <v>-0.02966362684416012</v>
+      </c>
+      <c r="F82">
+        <v>-0.0804429762219771</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01771940488335467</v>
+        <v>0.06169062113598432</v>
       </c>
       <c r="C83">
-        <v>-0.0794533794824062</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.00322383264240836</v>
+      </c>
+      <c r="D83">
+        <v>-0.04920619906203234</v>
+      </c>
+      <c r="E83">
+        <v>-0.005598857558854786</v>
+      </c>
+      <c r="F83">
+        <v>0.03335911180351978</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02618176786213436</v>
+        <v>0.05860442000726481</v>
       </c>
       <c r="C84">
-        <v>-0.07146987572332821</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01086762329966528</v>
+      </c>
+      <c r="D84">
+        <v>-0.06538823822926618</v>
+      </c>
+      <c r="E84">
+        <v>-0.006627451075268391</v>
+      </c>
+      <c r="F84">
+        <v>-0.006584229677594516</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.042538066319217</v>
+        <v>0.1381039818963043</v>
       </c>
       <c r="C85">
-        <v>-0.1179781806970064</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.02685408532777418</v>
+      </c>
+      <c r="D85">
+        <v>-0.01188170091336503</v>
+      </c>
+      <c r="E85">
+        <v>-0.03936189263269722</v>
+      </c>
+      <c r="F85">
+        <v>-0.048150172944219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.02132479920184818</v>
+        <v>0.09644989639128351</v>
       </c>
       <c r="C86">
-        <v>-0.1158956557783663</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.00700643964447398</v>
+      </c>
+      <c r="D86">
+        <v>-0.03822071034323744</v>
+      </c>
+      <c r="E86">
+        <v>-0.2059605283539734</v>
+      </c>
+      <c r="F86">
+        <v>0.9099871606616455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.04744168471839074</v>
+        <v>0.09580852105372649</v>
       </c>
       <c r="C87">
-        <v>-0.1089437143074094</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02168364158235761</v>
+      </c>
+      <c r="D87">
+        <v>-0.09206700906896162</v>
+      </c>
+      <c r="E87">
+        <v>0.05295002615960086</v>
+      </c>
+      <c r="F87">
+        <v>-0.05313148209258975</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01593439903510281</v>
+        <v>0.06088659154308059</v>
       </c>
       <c r="C88">
-        <v>-0.05687595626181337</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.002396997955389844</v>
+      </c>
+      <c r="D88">
+        <v>-0.0506004943027958</v>
+      </c>
+      <c r="E88">
+        <v>-0.02504794114423725</v>
+      </c>
+      <c r="F88">
+        <v>-0.01326656127175992</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.001201610100307609</v>
+        <v>0.134352283825626</v>
       </c>
       <c r="C89">
-        <v>-0.06471263269603418</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.01018099274243149</v>
+      </c>
+      <c r="D89">
+        <v>0.251237510363314</v>
+      </c>
+      <c r="E89">
+        <v>0.09000008582518856</v>
+      </c>
+      <c r="F89">
+        <v>0.004304036339918997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.01965857017365647</v>
+        <v>0.1480191120232142</v>
       </c>
       <c r="C90">
-        <v>-0.04146701204052929</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.02853164957145466</v>
+      </c>
+      <c r="D90">
+        <v>0.2657803376229501</v>
+      </c>
+      <c r="E90">
+        <v>0.1114016409849977</v>
+      </c>
+      <c r="F90">
+        <v>0.002181385741942611</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.02527831896484099</v>
+        <v>0.1196745559006178</v>
       </c>
       <c r="C91">
-        <v>-0.09225231937492917</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01758416934348925</v>
+      </c>
+      <c r="D91">
+        <v>0.01075415022548509</v>
+      </c>
+      <c r="E91">
+        <v>-0.05674808036395205</v>
+      </c>
+      <c r="F91">
+        <v>0.001433964364905423</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.000938508592705527</v>
+        <v>0.1480543812646088</v>
       </c>
       <c r="C92">
-        <v>-0.06073024822752465</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.02047494896250598</v>
+      </c>
+      <c r="D92">
+        <v>0.2915495997299126</v>
+      </c>
+      <c r="E92">
+        <v>0.1035503188457003</v>
+      </c>
+      <c r="F92">
+        <v>0.01381877582505331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01422031209064891</v>
+        <v>0.1510920715080724</v>
       </c>
       <c r="C93">
-        <v>-0.04632023515125409</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.024616389010036</v>
+      </c>
+      <c r="D93">
+        <v>0.2658697610847345</v>
+      </c>
+      <c r="E93">
+        <v>0.0785091553489459</v>
+      </c>
+      <c r="F93">
+        <v>-0.003682073192546381</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04984520081267765</v>
+        <v>0.131916187195059</v>
       </c>
       <c r="C94">
-        <v>-0.1575390701180825</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02400536599055171</v>
+      </c>
+      <c r="D94">
+        <v>-0.04421768768867854</v>
+      </c>
+      <c r="E94">
+        <v>-0.05879106895146291</v>
+      </c>
+      <c r="F94">
+        <v>-0.03707845298994025</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.04178957740286629</v>
+        <v>0.125754551370977</v>
       </c>
       <c r="C95">
-        <v>-0.1333173798858784</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.004551106819033806</v>
+      </c>
+      <c r="D95">
+        <v>-0.09224263373311661</v>
+      </c>
+      <c r="E95">
+        <v>-0.04870023136948552</v>
+      </c>
+      <c r="F95">
+        <v>0.01120584768451832</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9658542556652471</v>
+        <v>0.1011271397208574</v>
       </c>
       <c r="C96">
-        <v>-0.2410237726906896</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9883850152554907</v>
+      </c>
+      <c r="D96">
+        <v>0.03873511109685657</v>
+      </c>
+      <c r="E96">
+        <v>-0.05614526510019148</v>
+      </c>
+      <c r="F96">
+        <v>-0.04329979439905727</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.01920066720691413</v>
+        <v>0.1915603813359195</v>
       </c>
       <c r="C97">
-        <v>-0.1782942473442806</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.009381373142515708</v>
+      </c>
+      <c r="D97">
+        <v>0.01838849908931556</v>
+      </c>
+      <c r="E97">
+        <v>-0.01303507138516942</v>
+      </c>
+      <c r="F97">
+        <v>0.09294672969067407</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.03671429293625459</v>
+        <v>0.206225959733412</v>
       </c>
       <c r="C98">
-        <v>-0.1988049145064052</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.007331739171444144</v>
+      </c>
+      <c r="D98">
+        <v>-0.006444012702528812</v>
+      </c>
+      <c r="E98">
+        <v>0.08829761679520677</v>
+      </c>
+      <c r="F98">
+        <v>0.08994808974093549</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.004303969807918685</v>
+        <v>0.05576975746478409</v>
       </c>
       <c r="C99">
-        <v>-0.05555965572640855</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.004586350626170385</v>
+      </c>
+      <c r="D99">
+        <v>-0.03801582815871307</v>
+      </c>
+      <c r="E99">
+        <v>-0.02339618903489186</v>
+      </c>
+      <c r="F99">
+        <v>0.0004296802615830691</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.002498507254720922</v>
+        <v>0.1243714775783062</v>
       </c>
       <c r="C100">
-        <v>-0.1340288528468377</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.05305249987655538</v>
+      </c>
+      <c r="D100">
+        <v>-0.3498389812910441</v>
+      </c>
+      <c r="E100">
+        <v>0.887829156761905</v>
+      </c>
+      <c r="F100">
+        <v>0.1324404885609205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01575957077005612</v>
+        <v>0.02652564252565863</v>
       </c>
       <c r="C101">
-        <v>-0.02755951438518029</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.008171316951674373</v>
+      </c>
+      <c r="D101">
+        <v>-0.03264591038968195</v>
+      </c>
+      <c r="E101">
+        <v>-0.01018191360983311</v>
+      </c>
+      <c r="F101">
+        <v>0.01212430709204607</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
